--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ570.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ570.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E49F81-E213-4EA3-B3F1-2A198F64A920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0A3CE-F4F6-4006-A1F7-6A9F8D08B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -445,19 +445,10 @@
     <t>ApplyDate=</t>
   </si>
   <si>
-    <t>CustIdEq</t>
-  </si>
-  <si>
     <t>CustId=</t>
   </si>
   <si>
     <t>CustId ASC , ApplyDate DESC</t>
-  </si>
-  <si>
-    <t>RcDateEq</t>
-  </si>
-  <si>
-    <t>CustRcEq</t>
   </si>
   <si>
     <t>CustId= , AND ApplyDate=</t>
@@ -520,6 +511,18 @@
   <si>
     <t>SubmitKey,CustId,ApplyDate</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1087,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A50"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1107,10 +1110,10 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1135,10 +1138,10 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1236,7 +1239,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1269,7 +1272,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" s="14">
         <v>3</v>
@@ -1345,7 +1348,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E15" s="14">
         <v>3</v>
@@ -1364,7 +1367,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" s="14">
         <v>3</v>
@@ -1383,7 +1386,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E17" s="14">
         <v>3</v>
@@ -1402,7 +1405,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E18" s="14">
         <v>3</v>
@@ -1421,7 +1424,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E19" s="14">
         <v>3</v>
@@ -1440,7 +1443,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E20" s="14">
         <v>3</v>
@@ -1459,7 +1462,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21" s="14">
         <v>3</v>
@@ -1478,7 +1481,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E22" s="14">
         <v>3</v>
@@ -1497,7 +1500,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E23" s="14">
         <v>3</v>
@@ -1516,7 +1519,7 @@
         <v>51</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E24" s="14">
         <v>3</v>
@@ -1535,7 +1538,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E25" s="14">
         <v>3</v>
@@ -1554,7 +1557,7 @@
         <v>53</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E26" s="14">
         <v>3</v>
@@ -1573,7 +1576,7 @@
         <v>54</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E27" s="14">
         <v>3</v>
@@ -1592,7 +1595,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E28" s="14">
         <v>3</v>
@@ -1611,7 +1614,7 @@
         <v>56</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E29" s="14">
         <v>3</v>
@@ -1630,7 +1633,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E30" s="14">
         <v>3</v>
@@ -1649,7 +1652,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" s="14">
         <v>3</v>
@@ -1668,7 +1671,7 @@
         <v>59</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" s="14">
         <v>3</v>
@@ -1687,7 +1690,7 @@
         <v>60</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E33" s="14">
         <v>3</v>
@@ -1706,7 +1709,7 @@
         <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34" s="14">
         <v>3</v>
@@ -1725,7 +1728,7 @@
         <v>62</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E35" s="14">
         <v>3</v>
@@ -1744,7 +1747,7 @@
         <v>63</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E36" s="14">
         <v>3</v>
@@ -1763,7 +1766,7 @@
         <v>64</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" s="14">
         <v>3</v>
@@ -1782,7 +1785,7 @@
         <v>65</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E38" s="14">
         <v>3</v>
@@ -1801,7 +1804,7 @@
         <v>66</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E39" s="14">
         <v>3</v>
@@ -1820,7 +1823,7 @@
         <v>67</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E40" s="14">
         <v>3</v>
@@ -1839,7 +1842,7 @@
         <v>68</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E41" s="14">
         <v>3</v>
@@ -1858,7 +1861,7 @@
         <v>69</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E42" s="14">
         <v>3</v>
@@ -1877,7 +1880,7 @@
         <v>70</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E43" s="14">
         <v>3</v>
@@ -1896,7 +1899,7 @@
         <v>71</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E44" s="14">
         <v>3</v>
@@ -1928,10 +1931,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>20</v>
@@ -2532,9 +2535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2558,65 +2561,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
